--- a/SCH-STH/Impact assessments/Burkina Faso/bf_202301_sch_impact_assessment_4_resultat_urines.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/bf_202301_sch_impact_assessment_4_resultat_urines.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>type</t>
   </si>
@@ -56,7 +56,7 @@
     <t>choice_filter</t>
   </si>
   <si>
-    <t>reau_only</t>
+    <t>read_only</t>
   </si>
   <si>
     <t xml:space="preserve">select_one operateur</t>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t xml:space="preserve">Code site</t>
+  </si>
+  <si>
+    <t>regex(.,'^[A-Z]{3}$')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 prmières letrre du village en lettre majuscule</t>
   </si>
   <si>
     <t>u_Numero_Enquete</t>
@@ -591,7 +597,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -624,6 +630,11 @@
       <color theme="1"/>
       <sz val="12.000000"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color indexed="64"/>
+      <sz val="12.000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -751,7 +762,7 @@
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -769,10 +780,13 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -784,11 +798,11 @@
     </xf>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -798,14 +812,14 @@
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="6" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="7" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1387,7 +1401,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1553,7 +1567,12 @@
       <c r="C7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="F7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
         <v>17</v>
@@ -1566,17 +1585,17 @@
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
+      <c r="B8" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
@@ -1586,20 +1605,20 @@
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>39</v>
+      <c r="B9" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="11" t="s">
+      <c r="G9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="K9" s="5"/>
@@ -1614,10 +1633,10 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
@@ -1625,16 +1644,16 @@
     </row>
     <row r="11" ht="28.5">
       <c r="A11" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
@@ -1645,13 +1664,13 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
@@ -1659,16 +1678,16 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
@@ -1679,13 +1698,13 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
@@ -1693,16 +1712,16 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -1710,16 +1729,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="J16" t="s">
         <v>17</v>
@@ -1727,30 +1746,30 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="14"/>
+        <v>65</v>
+      </c>
+      <c r="H17" s="15"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
@@ -1780,1401 +1799,1401 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
-      <c r="A1" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>71</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" s="19" customFormat="1"/>
+    <row r="11">
+      <c r="A11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" s="19" customFormat="1">
+      <c r="A14" s="20"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" s="18" customFormat="1"/>
-    <row r="11">
-      <c r="A11" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="17" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" s="18" customFormat="1">
-      <c r="A14" s="19"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" s="18" customFormat="1">
-      <c r="A22" s="19"/>
+    </row>
+    <row r="22" s="19" customFormat="1">
+      <c r="A22" s="20"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" s="18" customFormat="1">
-      <c r="A25" s="20"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" s="19" customFormat="1">
+      <c r="A25" s="21"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>101</v>
+      <c r="B27" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>106</v>
+        <v>100</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="20"/>
+      <c r="A32" s="21"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21" t="s">
-        <v>84</v>
+      <c r="A33" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21" t="s">
-        <v>84</v>
+      <c r="A34" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21" t="s">
-        <v>84</v>
+      <c r="A35" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21" t="s">
-        <v>84</v>
+      <c r="A36" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21" t="s">
-        <v>84</v>
+      <c r="A37" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21" t="s">
-        <v>84</v>
+      <c r="A38" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21" t="s">
-        <v>84</v>
+      <c r="A39" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21" t="s">
-        <v>84</v>
+      <c r="A40" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21" t="s">
-        <v>84</v>
+      <c r="A41" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21" t="s">
-        <v>84</v>
+      <c r="A42" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21" t="s">
-        <v>85</v>
+      <c r="A43" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21" t="s">
-        <v>85</v>
+      <c r="A44" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21" t="s">
-        <v>85</v>
+      <c r="A45" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21" t="s">
-        <v>85</v>
+      <c r="A46" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21" t="s">
-        <v>85</v>
+      <c r="A47" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21" t="s">
-        <v>85</v>
+      <c r="A48" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21" t="s">
-        <v>85</v>
+      <c r="A49" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21" t="s">
-        <v>85</v>
+      <c r="A50" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="51" ht="14.25">
-      <c r="A51" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21" t="s">
-        <v>85</v>
+      <c r="A51" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="52" ht="14.25">
-      <c r="A52" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21" t="s">
-        <v>85</v>
+      <c r="A52" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21" t="s">
-        <v>86</v>
+      <c r="A53" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21" t="s">
-        <v>86</v>
+      <c r="A54" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="55" ht="14.25">
-      <c r="A55" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21" t="s">
-        <v>86</v>
+      <c r="A55" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="56" ht="14.25">
-      <c r="A56" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21" t="s">
-        <v>86</v>
+      <c r="A56" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21" t="s">
-        <v>86</v>
+      <c r="A57" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="58" ht="14.25">
-      <c r="A58" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21" t="s">
-        <v>86</v>
+      <c r="A58" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="59" ht="14.25">
-      <c r="A59" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21" t="s">
-        <v>86</v>
+      <c r="A59" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="60" ht="14.25">
-      <c r="A60" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21" t="s">
-        <v>86</v>
+      <c r="A60" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21" t="s">
-        <v>86</v>
+      <c r="A61" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="62" ht="14.25">
-      <c r="A62" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21" t="s">
-        <v>86</v>
+      <c r="A62" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="63" ht="14.25">
-      <c r="A63" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21" t="s">
-        <v>88</v>
+      <c r="A63" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="64" ht="14.25">
-      <c r="A64" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21" t="s">
-        <v>88</v>
+      <c r="A64" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="65" ht="14.25">
-      <c r="A65" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21" t="s">
-        <v>88</v>
+      <c r="A65" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="66" ht="14.25">
-      <c r="A66" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21" t="s">
-        <v>88</v>
+      <c r="A66" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="67" ht="14.25">
-      <c r="A67" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21" t="s">
-        <v>88</v>
+      <c r="A67" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="68" ht="14.25">
-      <c r="A68" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21" t="s">
-        <v>88</v>
+      <c r="A68" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="69" ht="14.25">
-      <c r="A69" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21" t="s">
-        <v>88</v>
+      <c r="A69" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="70" ht="14.25">
-      <c r="A70" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21" t="s">
-        <v>88</v>
+      <c r="A70" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="71" ht="14.25">
-      <c r="A71" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21" t="s">
-        <v>88</v>
+      <c r="A71" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="72" ht="14.25">
-      <c r="A72" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21" t="s">
-        <v>88</v>
+      <c r="A72" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="73" ht="14.25">
-      <c r="A73" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21" t="s">
-        <v>87</v>
+      <c r="A73" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="74" ht="14.25">
-      <c r="A74" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21" t="s">
-        <v>87</v>
+      <c r="A74" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="75" ht="14.25">
-      <c r="A75" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21" t="s">
-        <v>87</v>
+      <c r="A75" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="76" ht="14.25">
-      <c r="A76" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21" t="s">
-        <v>87</v>
+      <c r="A76" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="77" ht="14.25">
-      <c r="A77" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21" t="s">
-        <v>87</v>
+      <c r="A77" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="78" ht="14.25">
-      <c r="A78" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21" t="s">
-        <v>87</v>
+      <c r="A78" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="79" ht="14.25">
-      <c r="A79" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21" t="s">
-        <v>87</v>
+      <c r="A79" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="80" ht="14.25">
-      <c r="A80" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21" t="s">
-        <v>87</v>
+      <c r="A80" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="81" ht="14.25">
-      <c r="A81" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21" t="s">
-        <v>87</v>
+      <c r="A81" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="82" ht="14.25">
-      <c r="A82" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21" t="s">
-        <v>87</v>
+      <c r="A82" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="83" ht="14.25">
-      <c r="A83" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21" t="s">
-        <v>90</v>
+      <c r="A83" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="84" ht="14.25">
-      <c r="A84" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21" t="s">
-        <v>90</v>
+      <c r="A84" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="85" ht="14.25">
-      <c r="A85" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B85" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21" t="s">
-        <v>90</v>
+      <c r="A85" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="86" ht="14.25">
-      <c r="A86" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21" t="s">
-        <v>90</v>
+      <c r="A86" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="87" ht="14.25">
-      <c r="A87" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21" t="s">
-        <v>90</v>
+      <c r="A87" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="88" ht="14.25">
-      <c r="A88" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21" t="s">
-        <v>90</v>
+      <c r="A88" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="89" ht="14.25">
-      <c r="A89" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21" t="s">
-        <v>90</v>
+      <c r="A89" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="90" ht="14.25">
-      <c r="A90" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21" t="s">
-        <v>90</v>
+      <c r="A90" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="91" ht="14.25">
-      <c r="A91" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C91" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21" t="s">
-        <v>90</v>
+      <c r="A91" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="92" ht="14.25">
-      <c r="A92" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21" t="s">
-        <v>90</v>
+      <c r="A92" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="93" ht="14.25">
-      <c r="A93" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21" t="s">
-        <v>91</v>
+      <c r="A93" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="94" ht="14.25">
-      <c r="A94" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21" t="s">
-        <v>91</v>
+      <c r="A94" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="95" ht="14.25">
-      <c r="A95" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21" t="s">
-        <v>91</v>
+      <c r="A95" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="96" ht="14.25">
-      <c r="A96" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21" t="s">
-        <v>91</v>
+      <c r="A96" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="97" ht="14.25">
-      <c r="A97" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21" t="s">
-        <v>91</v>
+      <c r="A97" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="98" ht="14.25">
-      <c r="A98" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B98" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21" t="s">
-        <v>91</v>
+      <c r="A98" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="99" ht="14.25">
-      <c r="A99" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D99" s="21"/>
-      <c r="E99" s="21" t="s">
-        <v>91</v>
+      <c r="A99" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="100" ht="14.25">
-      <c r="A100" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B100" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D100" s="21"/>
-      <c r="E100" s="21" t="s">
-        <v>91</v>
+      <c r="A100" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="101" ht="14.25">
-      <c r="A101" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="D101" s="21"/>
-      <c r="E101" s="21" t="s">
-        <v>91</v>
+      <c r="A101" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="102" ht="14.25">
-      <c r="A102" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C102" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21" t="s">
-        <v>91</v>
+      <c r="A102" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3204,28 +3223,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
-      <c r="A1" s="17" t="s">
-        <v>183</v>
+      <c r="A1" s="18" t="s">
+        <v>185</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>187</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" ht="16.5">
-      <c r="A2" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>189</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>

--- a/SCH-STH/Impact assessments/Burkina Faso/bf_202301_sch_impact_assessment_4_resultat_urines.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/bf_202301_sch_impact_assessment_4_resultat_urines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B781461-A846-4ACD-AAEF-CEB3A35B3B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DE8B5F-7591-4D56-9E59-127D30E55F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -576,12 +576,6 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(BF - Jan 2023) impact schisto - 4. Formulaire Results _Urines V1</t>
-  </si>
-  <si>
-    <t>bf_202301_sch_impact_assessment_4_resultat_urines</t>
-  </si>
-  <si>
     <t>French</t>
   </si>
   <si>
@@ -595,6 +589,12 @@
   </si>
   <si>
     <t>Seguedougou</t>
+  </si>
+  <si>
+    <t>(BF - Jan 2023) impact schisto - 4. Formulaire Results _Urines V3</t>
+  </si>
+  <si>
+    <t>bf_202301_sch_impact_assessment_4_resultat_urines_v3</t>
   </si>
 </sst>
 </file>
@@ -759,6 +759,18 @@
   <dxfs count="2">
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD7D7D7"/>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
       </font>
@@ -769,23 +781,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD7D7D7"/>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="0"/>
-      <tableStyleElement type="headerRow" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1395,7 +1395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21:XFD102"/>
     </sheetView>
   </sheetViews>
@@ -2460,10 +2460,10 @@
         <v>108</v>
       </c>
       <c r="B83" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C83" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E83" t="s">
         <v>91</v>
@@ -2474,10 +2474,10 @@
         <v>108</v>
       </c>
       <c r="B84" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C84" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E84" t="s">
         <v>91</v>
@@ -2530,10 +2530,10 @@
         <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C88" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E88" t="s">
         <v>91</v>
@@ -2544,10 +2544,10 @@
         <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C89" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E89" t="s">
         <v>91</v>
@@ -2745,7 +2745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2772,13 +2772,13 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
         <v>184</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" t="s">
-        <v>186</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
